--- a/documentation/build_order_template.xlsx
+++ b/documentation/build_order_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\RTSanalytics\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1968127C-870C-44C3-9345-34E497BE3E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC23FEA-65D6-4133-A922-CFF22F4EEA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6120" yWindow="1980" windowWidth="21600" windowHeight="11295" xr2:uid="{8F91843A-8CB0-4ACA-A959-FCE1F6361964}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8F91843A-8CB0-4ACA-A959-FCE1F6361964}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,16 +38,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Time</t>
   </si>
   <si>
     <t>Weight</t>
+  </si>
+  <si>
+    <t>Unit_Type</t>
+  </si>
+  <si>
+    <t>Unit_Name</t>
   </si>
 </sst>
 </file>
@@ -422,7 +422,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,16 +433,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
